--- a/sample_PM_Templates_list.xlsx
+++ b/sample_PM_Templates_list.xlsx
@@ -1,19 +1,199 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Operations\Engineering\Franz - Portland\z-dev\git\LIMBLE_API\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+  </bookViews>
   <sheets>
     <sheet name="PM Templates" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+  <si>
+    <t>PM Name</t>
+  </si>
+  <si>
+    <t>PM Description</t>
+  </si>
+  <si>
+    <t>Instruction 1</t>
+  </si>
+  <si>
+    <t>Instruction 2</t>
+  </si>
+  <si>
+    <t>Instruction 3</t>
+  </si>
+  <si>
+    <t>Instruction 4</t>
+  </si>
+  <si>
+    <t>Instruction 5</t>
+  </si>
+  <si>
+    <t>Instruction 6</t>
+  </si>
+  <si>
+    <t>Instruction 7</t>
+  </si>
+  <si>
+    <t>Instruction 8</t>
+  </si>
+  <si>
+    <t>Instruction 9</t>
+  </si>
+  <si>
+    <t>Instruction 10</t>
+  </si>
+  <si>
+    <t>Asset ID</t>
+  </si>
+  <si>
+    <t>Scheduling start on (MM/DD/YYYY)</t>
+  </si>
+  <si>
+    <t>Repeat X Days</t>
+  </si>
+  <si>
+    <t>Repeat X Weeks</t>
+  </si>
+  <si>
+    <t>Repeat X Months</t>
+  </si>
+  <si>
+    <t>Repeat X Years</t>
+  </si>
+  <si>
+    <t>Assigned To User (user login)</t>
+  </si>
+  <si>
+    <t>Assigned To Team (team name)</t>
+  </si>
+  <si>
+    <t>Part ID</t>
+  </si>
+  <si>
+    <t>Part Suggested Qty</t>
+  </si>
+  <si>
+    <t>Default Priority Level</t>
+  </si>
+  <si>
+    <t>Estimated Time (in minutes)</t>
+  </si>
+  <si>
+    <t>Always Create New PMs</t>
+  </si>
+  <si>
+    <t>Recalculate on PM Completion</t>
+  </si>
+  <si>
+    <t>Task Status Configuration (Green)</t>
+  </si>
+  <si>
+    <t>Task Status Configuration (Orange)</t>
+  </si>
+  <si>
+    <t>Task Status Configuration (Red)</t>
+  </si>
+  <si>
+    <t>Weekly PM</t>
+  </si>
+  <si>
+    <t>PM designated by the manufacturer manual</t>
+  </si>
+  <si>
+    <t>Inspect Belts</t>
+  </si>
+  <si>
+    <t>Inspect Motors</t>
+  </si>
+  <si>
+    <t>Replace if required</t>
+  </si>
+  <si>
+    <t>If replaced leave comment as to why</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>10/18/2020</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>demo@limblecmms.com</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>Quarterly PM - Filter</t>
+  </si>
+  <si>
+    <t>Check HVAC and replace filter if needed.</t>
+  </si>
+  <si>
+    <t>Inspect Filter to see if it needs replaced.</t>
+  </si>
+  <si>
+    <t>If it doesn't need replaced add picture to WO of the filter.</t>
+  </si>
+  <si>
+    <t>If it needs replaced go ahead and replace it and record the filter used.</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>10/24/2020</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +230,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,282 +562,293 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>PM Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>PM Description</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Instruction 1</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Instruction 2</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Instruction 3</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Instruction 4</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Instruction 5</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Instruction 6</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Instruction 7</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Instruction 8</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Instruction 9</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Instruction 10</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Asset ID</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Scheduling start on (MM/DD/YYYY)</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Repeat X Days</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Repeat X Weeks</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Repeat X Months</v>
-      </c>
-      <c r="R1" t="str">
-        <v>Repeat X Years</v>
-      </c>
-      <c r="S1" t="str">
-        <v>Assigned To User (user login)</v>
-      </c>
-      <c r="T1" t="str">
-        <v>Assigned To Team (team name)</v>
-      </c>
-      <c r="U1" t="str">
-        <v>Part ID</v>
-      </c>
-      <c r="V1" t="str">
-        <v>Part Suggested Qty</v>
-      </c>
-      <c r="W1" t="str">
-        <v>Default Priority Level</v>
-      </c>
-      <c r="X1" t="str">
-        <v>Estimated Time (in minutes)</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>Always Create New PMs</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>Recalculate on PM Completion</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>Task Status Configuration (Green)</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>Task Status Configuration (Orange)</v>
-      </c>
-      <c r="AC1" t="str">
-        <v>Task Status Configuration (Red)</v>
+    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Weekly PM</v>
-      </c>
-      <c r="B2" t="str">
-        <v>PM designated by the manufacturer manual</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Inspect Belts</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Inspect Motors</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Replace if required</v>
-      </c>
-      <c r="F2" t="str">
-        <v>If replaced leave comment as to why</v>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <v/>
-      </c>
-      <c r="L2" t="str">
-        <v/>
-      </c>
-      <c r="M2" t="str">
-        <v>25</v>
-      </c>
-      <c r="N2" t="str">
-        <v>10/18/2020</v>
-      </c>
-      <c r="O2" t="str">
-        <v>7</v>
-      </c>
-      <c r="P2" t="str">
-        <v/>
-      </c>
-      <c r="Q2" t="str">
-        <v/>
-      </c>
-      <c r="R2" t="str">
-        <v/>
-      </c>
-      <c r="S2" t="str">
-        <v>demo@limblecmms.com</v>
-      </c>
-      <c r="T2" t="str">
-        <v/>
-      </c>
-      <c r="U2" t="str">
-        <v/>
-      </c>
-      <c r="V2" t="str">
-        <v/>
-      </c>
-      <c r="W2" t="str">
-        <v>3</v>
-      </c>
-      <c r="X2" t="str">
+    <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" t="str">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="str">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="str">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="str">
-        <v>-1</v>
-      </c>
-      <c r="AC2" t="str">
-        <v>-2</v>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Quarterly PM - Filter</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Check HVAC and replace filter if needed.</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Inspect Filter to see if it needs replaced.</v>
-      </c>
-      <c r="D3" t="str">
-        <v>If it doesn't need replaced add picture to WO of the filter.</v>
-      </c>
-      <c r="E3" t="str">
-        <v>If it needs replaced go ahead and replace it and record the filter used.</v>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="M3" t="str">
+    <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
         <v>52</v>
       </c>
-      <c r="N3" t="str">
-        <v>10/24/2020</v>
-      </c>
-      <c r="O3" t="str">
-        <v/>
-      </c>
-      <c r="P3" t="str">
-        <v/>
-      </c>
-      <c r="Q3" t="str">
-        <v>3</v>
-      </c>
-      <c r="R3" t="str">
-        <v/>
-      </c>
-      <c r="S3" t="str">
-        <v/>
-      </c>
-      <c r="T3" t="str">
-        <v>Technician</v>
-      </c>
-      <c r="U3" t="str">
-        <v>26</v>
-      </c>
-      <c r="V3" t="str">
-        <v>1</v>
-      </c>
-      <c r="W3" t="str">
-        <v>1</v>
-      </c>
-      <c r="X3" t="str">
-        <v>15</v>
-      </c>
-      <c r="Y3" t="str">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="str">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="str">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="str">
-        <v>-1</v>
-      </c>
-      <c r="AC3" t="str">
-        <v>-2</v>
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC3"/>
+    <ignoredError sqref="A1:AC3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>